--- a/Griffin_r01/meas_setting_4DVE_1st_LUT.xlsx
+++ b/Griffin_r01/meas_setting_4DVE_1st_LUT.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FABA4F3C-AF6E-4B3B-952C-461F772D040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meas_setting_4DVE_1st_LUT" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">meas_setting_4DVE_1st_LUT!$A$1:$AB$153</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -118,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1063,11 +1074,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G49" workbookViewId="0">
-      <selection activeCell="AB70" sqref="AB70"/>
+      <selection activeCell="AB75" sqref="AB75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14263,7 +14274,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB153"/>
+  <autoFilter ref="A1:AB153" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Griffin_r01/meas_setting_4DVE_1st_LUT.xlsx
+++ b/Griffin_r01/meas_setting_4DVE_1st_LUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthineersapc-my.sharepoint.com/personal/inseop_hwang_siemens-healthineers_com/Documents/1_External Training/2_Python/PycharmProjects/AOP_ML/Griffin_r01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:40009_{FABA4F3C-AF6E-4B3B-952C-461F772D040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A350DC84-1D81-4E0B-A732-1CFE6463D403}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:40009_{FABA4F3C-AF6E-4B3B-952C-461F772D040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66351850-7E13-417C-BD2C-DA1D66E140E6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meas_setting_4DVE_1st_LUT" sheetId="1" r:id="rId1"/>
@@ -295,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +478,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +741,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1091,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH153"/>
+  <dimension ref="A1:AJ153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA139" sqref="AA139"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14647,7 +14656,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>28</v>
       </c>
@@ -14753,7 +14762,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>28</v>
       </c>
@@ -14859,7 +14868,7 @@
         <v>0.70000000000000018</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -14965,7 +14974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>28</v>
       </c>
@@ -15071,7 +15080,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>28</v>
       </c>
@@ -15177,7 +15186,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>28</v>
       </c>
@@ -15283,7 +15292,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>28</v>
       </c>
@@ -15389,7 +15398,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>28</v>
       </c>
@@ -15495,7 +15504,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>28</v>
       </c>
@@ -15601,7 +15610,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>28</v>
       </c>
@@ -15683,8 +15692,16 @@
       <c r="AA138" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AC138" s="3">
+        <f>AVERAGE(AC2:AC137)</f>
+        <v>0.72058823529411786</v>
+      </c>
+      <c r="AH138" s="3">
+        <f>AVERAGE(AH2:AH137)</f>
+        <v>0.9897058823529401</v>
+      </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>28</v>
       </c>
@@ -15768,15 +15785,19 @@
         <v>1.6102941176470584</v>
       </c>
       <c r="AC139" s="1">
-        <f>SUM(AC2:AC137)</f>
-        <v>98.000000000000028</v>
+        <f>SUM(AC2:AC138)</f>
+        <v>98.720588235294144</v>
       </c>
       <c r="AH139" s="1">
         <f>SUM(AH2:AH137)</f>
         <v>134.59999999999985</v>
       </c>
+      <c r="AJ139">
+        <f>AH139-AC139</f>
+        <v>35.879411764705708</v>
+      </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>28</v>
       </c>
@@ -15856,7 +15877,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -15936,7 +15957,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>28</v>
       </c>
@@ -16016,7 +16037,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>28</v>
       </c>
@@ -16096,7 +16117,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>28</v>
       </c>

--- a/Griffin_r01/meas_setting_4DVE_1st_LUT.xlsx
+++ b/Griffin_r01/meas_setting_4DVE_1st_LUT.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthineersapc-my.sharepoint.com/personal/inseop_hwang_siemens-healthineers_com/Documents/1_External Training/2_Python/PycharmProjects/AOP_ML/Griffin_r01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:40009_{FABA4F3C-AF6E-4B3B-952C-461F772D040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66351850-7E13-417C-BD2C-DA1D66E140E6}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:40009_{FABA4F3C-AF6E-4B3B-952C-461F772D040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD1FED6F-9ABA-427D-897D-E3B72EAD282E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meas_setting_4DVE_1st_LUT" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">meas_setting_4DVE_1st_LUT!$A$1:$AB$153</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="35">
   <si>
     <t>measSetComments</t>
   </si>
@@ -127,6 +128,22 @@
   </si>
   <si>
     <t>평균.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABS(Diff)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diff</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,8 +504,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -600,6 +623,141 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,7 +890,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +901,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,6 +992,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1102,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15788,6 +15993,10 @@
         <f>SUM(AC2:AC138)</f>
         <v>98.720588235294144</v>
       </c>
+      <c r="AF139">
+        <f>AVERAGE(AF2:AF137)</f>
+        <v>1.6102941176470584</v>
+      </c>
       <c r="AH139" s="1">
         <f>SUM(AH2:AH137)</f>
         <v>134.59999999999985</v>
@@ -16923,4 +17132,4763 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855A6C70-723E-414B-88E2-FC0B8959C0C6}">
+  <dimension ref="B1:R142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="6.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="E3" s="9">
+        <f>C3-D3</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="F3" s="9">
+        <f>ABS(E3)</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I3" s="9">
+        <f>D3</f>
+        <v>1.9</v>
+      </c>
+      <c r="J3" s="9">
+        <f>I3-H3</f>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="K3" s="10">
+        <f>ABS(J3)</f>
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" ref="E4:E67" si="0">C4-D4</f>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F67" si="1">ABS(E4)</f>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I67" si="2">D4</f>
+        <v>1.6</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" ref="J4:J67" si="3">I4-H4</f>
+        <v>-1</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" ref="K4:K67" si="4">ABS(J4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="4"/>
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" si="4"/>
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="8">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="8">
+        <v>22</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="8">
+        <v>23</v>
+      </c>
+      <c r="C25" s="9">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="8">
+        <v>25</v>
+      </c>
+      <c r="C27" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="4"/>
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="8">
+        <v>26</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="8">
+        <v>27</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="8">
+        <v>28</v>
+      </c>
+      <c r="C30" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="8">
+        <v>29</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K31" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="8">
+        <v>30</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="8">
+        <v>31</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="8">
+        <v>2</v>
+      </c>
+      <c r="C35" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D35" s="9">
+        <v>2</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="1"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" si="4"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="8">
+        <v>3</v>
+      </c>
+      <c r="C36" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="K36" s="10">
+        <f t="shared" si="4"/>
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="8">
+        <v>4</v>
+      </c>
+      <c r="C37" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="0"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="1"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K37" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="8">
+        <v>5</v>
+      </c>
+      <c r="C38" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="0"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="1"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="8">
+        <v>6</v>
+      </c>
+      <c r="C39" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J39" s="9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K39" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="8">
+        <v>7</v>
+      </c>
+      <c r="C40" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="K40" s="10">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="8">
+        <v>8</v>
+      </c>
+      <c r="C41" s="14">
+        <v>2.7</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" si="0"/>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="J41" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K41" s="10">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="8">
+        <v>9</v>
+      </c>
+      <c r="C42" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="E42" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="I42" s="9">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="J42" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="11">
+        <v>10</v>
+      </c>
+      <c r="C43" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D43" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="17">
+        <v>2.6</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="J43" s="12">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>2.1</v>
+      </c>
+      <c r="D44">
+        <v>1.8</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H44">
+        <v>2.6</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D45">
+        <v>1.6</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="H45">
+        <v>2.6</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>2.5</v>
+      </c>
+      <c r="D46">
+        <v>1.5</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>2.6</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>2.5</v>
+      </c>
+      <c r="D47">
+        <v>1.5</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2.6</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D48">
+        <v>1.6</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H48">
+        <v>2.6</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>2.7</v>
+      </c>
+      <c r="D49">
+        <v>1.6</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H49">
+        <v>2.6</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>2.9</v>
+      </c>
+      <c r="D50">
+        <v>1.7</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="H50">
+        <v>2.6</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>2.8</v>
+      </c>
+      <c r="D51">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="H51">
+        <v>2.6</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>2.5</v>
+      </c>
+      <c r="D52">
+        <v>2.1</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="H52">
+        <v>2.6</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D53">
+        <v>1.9</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="H53">
+        <v>2.6</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="4"/>
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>1.9</v>
+      </c>
+      <c r="D54">
+        <v>1.8</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="H54">
+        <v>2.6</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>2.1</v>
+      </c>
+      <c r="D55">
+        <v>1.8</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H55">
+        <v>2.6</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>2.1</v>
+      </c>
+      <c r="D56">
+        <v>1.9</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="H56">
+        <v>2.6</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D57">
+        <v>1.8</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="H57">
+        <v>2.6</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D58">
+        <v>1.9</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="H58">
+        <v>2.6</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>1.8</v>
+      </c>
+      <c r="D59">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>-0.49999999999999978</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="H59">
+        <v>2.6</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>-0.30000000000000027</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000027</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>2.6</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1.8</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H61">
+        <v>2.6</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D62">
+        <v>1.7</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="H62">
+        <v>2.6</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>2.5</v>
+      </c>
+      <c r="D63">
+        <v>1.8</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="H63">
+        <v>2.6</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>1.8</v>
+      </c>
+      <c r="D64">
+        <v>1.7</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="H64">
+        <v>2.6</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>1.8</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H65">
+        <v>2.6</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1.8</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="H66">
+        <v>2.6</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1.8</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="H67">
+        <v>2.6</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D68">
+        <v>1.5</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E131" si="5">C68-D68</f>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F131" si="6">ABS(E68)</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="H68">
+        <v>2.6</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I131" si="7">D68</f>
+        <v>1.5</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J131" si="8">I68-H68</f>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:K131" si="9">ABS(J68)</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D69">
+        <v>1.7</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="5"/>
+        <v>-0.59999999999999987</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="6"/>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="H69">
+        <v>2.6</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="7"/>
+        <v>1.7</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="8"/>
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="9"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="C70">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D70">
+        <v>1.6</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H70">
+        <v>2.6</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1.5</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H71">
+        <v>2.6</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>1.2</v>
+      </c>
+      <c r="D72">
+        <v>1.6</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>-0.40000000000000013</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="6"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="H72">
+        <v>2.6</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <v>2.5</v>
+      </c>
+      <c r="D73">
+        <v>1.6</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="6"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H73">
+        <v>2.6</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>2.6</v>
+      </c>
+      <c r="D74">
+        <v>1.5</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H74">
+        <v>2.6</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D75">
+        <v>1.7</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>-0.59999999999999987</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="6"/>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="H75">
+        <v>2.6</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="7"/>
+        <v>1.7</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="8"/>
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="9"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <v>1.2</v>
+      </c>
+      <c r="D76">
+        <v>1.3</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="6"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="H76">
+        <v>2.6</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="8"/>
+        <v>-1.3</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D77">
+        <v>1.3</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="6"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H77">
+        <v>2.6</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="8"/>
+        <v>-1.3</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D78">
+        <v>1.3</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="6"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H78">
+        <v>2.6</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="8"/>
+        <v>-1.3</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1.3</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H79">
+        <v>2.6</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="8"/>
+        <v>-1.3</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80">
+        <v>1.2</v>
+      </c>
+      <c r="D80">
+        <v>1.4</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="5"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="6"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H80">
+        <v>2.6</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="8"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="9"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <v>2.5</v>
+      </c>
+      <c r="D81">
+        <v>1.5</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>2.6</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <v>2.6</v>
+      </c>
+      <c r="D82">
+        <v>1.5</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H82">
+        <v>2.6</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1.7</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="5"/>
+        <v>-0.7</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="H83">
+        <v>2.6</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="7"/>
+        <v>1.7</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="8"/>
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="9"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>82</v>
+      </c>
+      <c r="C84">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D84">
+        <v>1.5</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="5"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="6"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="H84">
+        <v>2.6</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="C85">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D85">
+        <v>1.6</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H85">
+        <v>2.6</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="C86">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D86">
+        <v>1.6</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H86">
+        <v>2.6</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1.5</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H87">
+        <v>2.6</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>86</v>
+      </c>
+      <c r="C88">
+        <v>1.2</v>
+      </c>
+      <c r="D88">
+        <v>1.5</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H88">
+        <v>2.6</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>87</v>
+      </c>
+      <c r="C89">
+        <v>2.5</v>
+      </c>
+      <c r="D89">
+        <v>1.6</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="5"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="6"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H89">
+        <v>2.6</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>88</v>
+      </c>
+      <c r="C90">
+        <v>2.6</v>
+      </c>
+      <c r="D90">
+        <v>1.6</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>2.6</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D91">
+        <v>1.7</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="5"/>
+        <v>-0.59999999999999987</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="6"/>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="H91">
+        <v>2.6</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="7"/>
+        <v>1.7</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="8"/>
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="9"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <v>1.2</v>
+      </c>
+      <c r="D92">
+        <v>1.5</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="5"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H92">
+        <v>2.6</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>91</v>
+      </c>
+      <c r="C93">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D93">
+        <v>1.5</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="5"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="6"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="H93">
+        <v>2.6</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>92</v>
+      </c>
+      <c r="C94">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D94">
+        <v>1.5</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="5"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="6"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="H94">
+        <v>2.6</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1.5</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H95">
+        <v>2.6</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <v>1.2</v>
+      </c>
+      <c r="D96">
+        <v>1.5</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="5"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H96">
+        <v>2.6</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <v>2.5</v>
+      </c>
+      <c r="D97">
+        <v>1.4</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H97">
+        <v>2.6</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="8"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="9"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>2.6</v>
+      </c>
+      <c r="D98">
+        <v>1.5</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H98">
+        <v>2.6</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="C99">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D99">
+        <v>1.8</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="5"/>
+        <v>-0.7</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="H99">
+        <v>2.6</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="8"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="C100">
+        <v>1.2</v>
+      </c>
+      <c r="D100">
+        <v>1.6</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="5"/>
+        <v>-0.40000000000000013</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="6"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="H100">
+        <v>2.6</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>99</v>
+      </c>
+      <c r="C101">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D101">
+        <v>1.6</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H101">
+        <v>2.6</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D102">
+        <v>1.6</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H102">
+        <v>2.6</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>101</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1.4</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="5"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="6"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="H103">
+        <v>2.6</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="8"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="9"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>102</v>
+      </c>
+      <c r="C104">
+        <v>1.2</v>
+      </c>
+      <c r="D104">
+        <v>1.5</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="5"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H104">
+        <v>2.6</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>103</v>
+      </c>
+      <c r="C105">
+        <v>2.4</v>
+      </c>
+      <c r="D105">
+        <v>1.7</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="H105">
+        <v>2.6</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="7"/>
+        <v>1.7</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="8"/>
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="9"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>104</v>
+      </c>
+      <c r="C106">
+        <v>2.4</v>
+      </c>
+      <c r="D106">
+        <v>1.7</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="H106">
+        <v>2.6</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="7"/>
+        <v>1.7</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="8"/>
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="9"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>105</v>
+      </c>
+      <c r="C107">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D107">
+        <v>1.8</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="5"/>
+        <v>-0.7</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="H107">
+        <v>2.6</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="8"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>106</v>
+      </c>
+      <c r="C108">
+        <v>1.2</v>
+      </c>
+      <c r="D108">
+        <v>1.6</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="5"/>
+        <v>-0.40000000000000013</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="6"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="H108">
+        <v>2.6</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>107</v>
+      </c>
+      <c r="C109">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D109">
+        <v>1.5</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="5"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="6"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="H109">
+        <v>2.6</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>108</v>
+      </c>
+      <c r="C110">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D110">
+        <v>1.6</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H110">
+        <v>2.6</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>109</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1.4</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="5"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="6"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="H111">
+        <v>2.6</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="8"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="9"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>110</v>
+      </c>
+      <c r="C112">
+        <v>1.2</v>
+      </c>
+      <c r="D112">
+        <v>1.5</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="5"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H112">
+        <v>2.6</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>111</v>
+      </c>
+      <c r="C113">
+        <v>2.4</v>
+      </c>
+      <c r="D113">
+        <v>1.6</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="5"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="6"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="H113">
+        <v>2.6</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>112</v>
+      </c>
+      <c r="C114">
+        <v>2.4</v>
+      </c>
+      <c r="D114">
+        <v>1.6</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="5"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="6"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="H114">
+        <v>2.6</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>113</v>
+      </c>
+      <c r="C115">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D115">
+        <v>1.9</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="5"/>
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="6"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="H115">
+        <v>2.6</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="7"/>
+        <v>1.9</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="8"/>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="9"/>
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>114</v>
+      </c>
+      <c r="C116">
+        <v>1.2</v>
+      </c>
+      <c r="D116">
+        <v>1.5</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="5"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H116">
+        <v>2.6</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>115</v>
+      </c>
+      <c r="C117">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D117">
+        <v>1.5</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="5"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="6"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="H117">
+        <v>2.6</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>116</v>
+      </c>
+      <c r="C118">
+        <v>1.2</v>
+      </c>
+      <c r="D118">
+        <v>1.4</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="5"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="6"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H118">
+        <v>2.6</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="8"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="9"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>117</v>
+      </c>
+      <c r="C119">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D119">
+        <v>1.5</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="5"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="6"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="H119">
+        <v>2.6</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>118</v>
+      </c>
+      <c r="C120">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D120">
+        <v>1.4</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="5"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="6"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="H120">
+        <v>2.6</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="8"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="9"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>119</v>
+      </c>
+      <c r="C121">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D121">
+        <v>1.6</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H121">
+        <v>2.6</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>120</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1.6</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="5"/>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="6"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H122">
+        <v>2.6</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>121</v>
+      </c>
+      <c r="C123">
+        <v>1.2</v>
+      </c>
+      <c r="D123">
+        <v>1.8</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="5"/>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="6"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H123">
+        <v>2.6</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="8"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>122</v>
+      </c>
+      <c r="C124">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D124">
+        <v>1.5</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="5"/>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="6"/>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="H124">
+        <v>2.6</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>123</v>
+      </c>
+      <c r="C125">
+        <v>2.9</v>
+      </c>
+      <c r="D125">
+        <v>1.5</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="5"/>
+        <v>1.4</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="H125">
+        <v>2.6</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>124</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>1.3</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="5"/>
+        <v>1.7</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="6"/>
+        <v>1.7</v>
+      </c>
+      <c r="H126">
+        <v>2.6</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="8"/>
+        <v>-1.3</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>125</v>
+      </c>
+      <c r="C127">
+        <v>2.9</v>
+      </c>
+      <c r="D127">
+        <v>1.4</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="H127">
+        <v>2.6</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="8"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="9"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>126</v>
+      </c>
+      <c r="C128">
+        <v>2.6</v>
+      </c>
+      <c r="D128">
+        <v>1.4</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="6"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="H128">
+        <v>2.6</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="8"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="9"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>127</v>
+      </c>
+      <c r="C129">
+        <v>2.5</v>
+      </c>
+      <c r="D129">
+        <v>1.5</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>2.6</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>128</v>
+      </c>
+      <c r="C130">
+        <v>2.5</v>
+      </c>
+      <c r="D130">
+        <v>1.5</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>2.6</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="8"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>129</v>
+      </c>
+      <c r="C131">
+        <v>2.1</v>
+      </c>
+      <c r="D131">
+        <v>1.9</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="5"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="6"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="H131">
+        <v>2.6</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="7"/>
+        <v>1.9</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="8"/>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="9"/>
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>130</v>
+      </c>
+      <c r="C132">
+        <v>2.1</v>
+      </c>
+      <c r="D132">
+        <v>1.6</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ref="E132:E138" si="10">C132-D132</f>
+        <v>0.5</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ref="F132:F138" si="11">ABS(E132)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H132">
+        <v>2.6</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ref="I132:I195" si="12">D132</f>
+        <v>1.6</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ref="J132:J195" si="13">I132-H132</f>
+        <v>-1</v>
+      </c>
+      <c r="K132">
+        <f t="shared" ref="K132:K138" si="14">ABS(J132)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>131</v>
+      </c>
+      <c r="C133">
+        <v>2.6</v>
+      </c>
+      <c r="D133">
+        <v>1.4</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="10"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="11"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="H133">
+        <v>2.6</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="12"/>
+        <v>1.4</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="13"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="14"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>132</v>
+      </c>
+      <c r="C134">
+        <v>2.7</v>
+      </c>
+      <c r="D134">
+        <v>1.4</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="10"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="11"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="H134">
+        <v>2.6</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="12"/>
+        <v>1.4</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="13"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="14"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>133</v>
+      </c>
+      <c r="C135">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D135">
+        <v>1.4</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="10"/>
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="11"/>
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="H135">
+        <v>2.6</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="12"/>
+        <v>1.4</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="13"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="14"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>134</v>
+      </c>
+      <c r="C136">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D136">
+        <v>1.5</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="10"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="11"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="H136">
+        <v>2.6</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="13"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="14"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>135</v>
+      </c>
+      <c r="C137">
+        <v>2.6</v>
+      </c>
+      <c r="D137">
+        <v>1.5</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="10"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="11"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H137">
+        <v>2.6</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="13"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="14"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>136</v>
+      </c>
+      <c r="C138">
+        <v>2.6</v>
+      </c>
+      <c r="D138">
+        <v>1.5</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="10"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="11"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H138">
+        <v>2.6</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="13"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="14"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q138">
+        <f>134*4</f>
+        <v>536</v>
+      </c>
+      <c r="R138">
+        <f>98*4</f>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="139" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D139" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139" s="3">
+        <f>AVERAGE(F3:F138)</f>
+        <v>0.72058823529411786</v>
+      </c>
+      <c r="K139" s="3">
+        <f>AVERAGE(K3:K138)</f>
+        <v>0.9897058823529401</v>
+      </c>
+    </row>
+    <row r="140" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D140">
+        <f>AVERAGE(D3:D138)</f>
+        <v>1.6102941176470584</v>
+      </c>
+      <c r="F140" s="1">
+        <f>SUM(F3:F139)</f>
+        <v>98.720588235294144</v>
+      </c>
+      <c r="I140">
+        <f>AVERAGE(I3:I138)</f>
+        <v>1.6102941176470584</v>
+      </c>
+      <c r="K140" s="1">
+        <f>SUM(K3:K138)</f>
+        <v>134.59999999999985</v>
+      </c>
+    </row>
+    <row r="142" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K142">
+        <f>(K140-F140)/K140</f>
+        <v>0.26656323747924032</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>